--- a/data/course01.xlsx
+++ b/data/course01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kata6\Game\X68000\Develop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB42A326-213B-488C-B53E-C90DDA71FEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA9278-31C9-448B-BB40-EE03BAA55D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20415" yWindow="2115" windowWidth="20055" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26985" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="course01" sheetId="1" r:id="rId1"/>
@@ -4583,859 +4583,859 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="285"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="195">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="197">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="209">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="211">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="215">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="229">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,7 +7593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1000" workbookViewId="0">
+      <selection activeCell="I1023" sqref="I1023"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -7614,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -7660,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -7706,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7752,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -7798,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -7844,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -7890,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -7936,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -7982,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -8028,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -8074,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -8120,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -8166,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -8212,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -8258,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -8350,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -8396,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -8442,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -8488,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -8534,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -8580,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -8626,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -8672,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -8718,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -8764,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -8810,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -8856,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -8902,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -8994,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -9040,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -9086,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -9132,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -9178,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -9224,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -9270,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -9316,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -9362,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -9408,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -9454,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -9500,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -9546,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -9592,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -9684,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -9730,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -9776,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -9822,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9868,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9914,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9960,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -10006,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10052,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -10098,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -10144,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10190,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10236,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10282,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10328,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10374,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10420,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -10466,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -10512,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -10558,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -10650,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -10696,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -10742,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -10788,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -10834,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -10880,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -10926,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -10972,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -11018,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -11064,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -11110,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -11156,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -11202,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -11248,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -11340,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -11386,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -11432,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -11478,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -11524,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -11570,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -11616,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -11662,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -11708,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -11754,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -11800,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -11846,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -11892,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -11938,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -11984,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -12030,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -12076,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -12122,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -12168,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -12214,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -12260,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -12306,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -12352,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -12398,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -12444,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -12490,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -12536,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -12582,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -12628,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -12674,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -12720,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -12766,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -12812,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -12858,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -12904,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -12950,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -12996,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -13042,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -13088,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -13134,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -13180,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -13226,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -13272,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -13318,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -13364,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -13410,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -13456,7 +13458,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -13502,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -13548,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -13594,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -13640,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -13686,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -13732,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -13778,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -13824,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -13870,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -13916,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -13962,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -14008,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -14054,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -14100,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -14146,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -14192,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -14238,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -14284,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -14330,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -14376,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -14422,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -14468,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -14514,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -14560,7 +14562,7 @@
         <v>0</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -14606,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -14652,7 +14654,7 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -14698,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -14744,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -14790,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -14836,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -14882,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -14928,7 +14930,7 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -14974,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -15020,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -15066,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -15112,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327">
         <v>0</v>
@@ -15158,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -15204,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G331">
         <v>0</v>
@@ -15250,7 +15252,7 @@
         <v>0</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -15296,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335">
         <v>0</v>
@@ -15342,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G337">
         <v>0</v>
@@ -15388,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -15434,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="F341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -15480,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G343">
         <v>0</v>
@@ -15526,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G345">
         <v>0</v>
@@ -15572,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="F347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G347">
         <v>0</v>
@@ -15618,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349">
         <v>0</v>
@@ -15664,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -15710,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G353">
         <v>0</v>
@@ -15756,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G355">
         <v>0</v>
@@ -15802,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="F357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G357">
         <v>0</v>
@@ -15848,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -15894,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -15940,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -15986,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G365">
         <v>0</v>
@@ -16032,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="F367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G367">
         <v>0</v>
@@ -16078,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -16124,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -16170,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G373">
         <v>0</v>
@@ -16216,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -16262,7 +16264,7 @@
         <v>0</v>
       </c>
       <c r="F377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -16308,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="F379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -16354,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G381">
         <v>0</v>
@@ -16400,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="F383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G383">
         <v>0</v>
@@ -16446,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -16492,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="F387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -16538,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="F389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -16584,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="F391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G391">
         <v>0</v>
@@ -16630,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="F393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -16676,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="F395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -16722,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -16768,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="F399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -16814,7 +16816,7 @@
         <v>0</v>
       </c>
       <c r="F401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G401">
         <v>0</v>
@@ -16860,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="F403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -16906,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G405">
         <v>0</v>
@@ -16952,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="F407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G407">
         <v>0</v>
@@ -16998,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="F409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -17044,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="F411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G411">
         <v>0</v>
@@ -17090,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="F413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -17136,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="F415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -17182,7 +17184,7 @@
         <v>0</v>
       </c>
       <c r="F417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G417">
         <v>0</v>
@@ -17228,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="F419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G419">
         <v>0</v>
@@ -17274,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="F421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -17320,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="F423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G423">
         <v>0</v>
@@ -17366,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="F425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -17412,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="F427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G427">
         <v>0</v>
@@ -17458,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G429">
         <v>0</v>
@@ -17504,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="F431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G431">
         <v>0</v>
@@ -17550,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="F433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G433">
         <v>0</v>
@@ -17596,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -17642,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="F437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -17688,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="F439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -17734,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="F441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -17780,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="F443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -17826,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="F445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -17872,7 +17874,7 @@
         <v>0</v>
       </c>
       <c r="F447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G447">
         <v>0</v>
@@ -17918,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="F449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G449">
         <v>0</v>
@@ -17964,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="F451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G451">
         <v>0</v>
@@ -18010,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="F453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G453">
         <v>0</v>
@@ -18056,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="F455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -18102,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="F457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G457">
         <v>0</v>
@@ -18148,7 +18150,7 @@
         <v>0</v>
       </c>
       <c r="F459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G459">
         <v>0</v>
@@ -18194,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="F461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -18240,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="F463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G463">
         <v>0</v>
@@ -18286,7 +18288,7 @@
         <v>0</v>
       </c>
       <c r="F465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -18332,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="F467">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G467">
         <v>0</v>
@@ -18378,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="F469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -18424,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="F471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G471">
         <v>0</v>
@@ -18470,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="F473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G473">
         <v>0</v>
@@ -18516,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="F475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G475">
         <v>0</v>
@@ -18562,7 +18564,7 @@
         <v>0</v>
       </c>
       <c r="F477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G477">
         <v>0</v>
@@ -18608,7 +18610,7 @@
         <v>0</v>
       </c>
       <c r="F479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G479">
         <v>0</v>
@@ -18654,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="F481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G481">
         <v>0</v>
@@ -18700,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="F483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G483">
         <v>0</v>
@@ -18746,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="F485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -18792,7 +18794,7 @@
         <v>0</v>
       </c>
       <c r="F487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -18838,7 +18840,7 @@
         <v>0</v>
       </c>
       <c r="F489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G489">
         <v>0</v>
@@ -18884,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="F491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G491">
         <v>0</v>
@@ -18930,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="F493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -18976,7 +18978,7 @@
         <v>0</v>
       </c>
       <c r="F495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G495">
         <v>0</v>
@@ -19022,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="F497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G497">
         <v>0</v>
@@ -19068,7 +19070,7 @@
         <v>0</v>
       </c>
       <c r="F499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G499">
         <v>0</v>
@@ -19114,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="F501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G501">
         <v>0</v>
@@ -19160,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="F503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G503">
         <v>0</v>
@@ -19206,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="F505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -19252,7 +19254,7 @@
         <v>0</v>
       </c>
       <c r="F507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -19298,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="F509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -19344,7 +19346,7 @@
         <v>0</v>
       </c>
       <c r="F511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G511">
         <v>0</v>
@@ -19390,7 +19392,7 @@
         <v>0</v>
       </c>
       <c r="F513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G513">
         <v>0</v>
@@ -19436,7 +19438,7 @@
         <v>0</v>
       </c>
       <c r="F515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G515">
         <v>0</v>
@@ -19482,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="F517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G517">
         <v>0</v>
@@ -19528,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="F519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G519">
         <v>0</v>
@@ -19574,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="F521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G521">
         <v>0</v>
@@ -19620,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="F523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G523">
         <v>0</v>
@@ -19666,7 +19668,7 @@
         <v>0</v>
       </c>
       <c r="F525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -19712,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="F527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -19758,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="F529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G529">
         <v>0</v>
@@ -19804,7 +19806,7 @@
         <v>0</v>
       </c>
       <c r="F531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -19850,7 +19852,7 @@
         <v>0</v>
       </c>
       <c r="F533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -19896,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="F535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -19942,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="F537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G537">
         <v>0</v>
@@ -19988,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="F539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G539">
         <v>0</v>
@@ -20034,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="F541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G541">
         <v>0</v>
@@ -20080,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="F543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G543">
         <v>0</v>
@@ -20126,7 +20128,7 @@
         <v>0</v>
       </c>
       <c r="F545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -20172,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="F547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G547">
         <v>0</v>
@@ -20218,7 +20220,7 @@
         <v>0</v>
       </c>
       <c r="F549">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G549">
         <v>0</v>
@@ -20264,7 +20266,7 @@
         <v>0</v>
       </c>
       <c r="F551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G551">
         <v>0</v>
@@ -20310,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="F553">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G553">
         <v>0</v>
@@ -20356,7 +20358,7 @@
         <v>0</v>
       </c>
       <c r="F555">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G555">
         <v>0</v>
@@ -20402,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="F557">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G557">
         <v>0</v>
@@ -20448,7 +20450,7 @@
         <v>0</v>
       </c>
       <c r="F559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -20494,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="F561">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G561">
         <v>0</v>
@@ -20540,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="F563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G563">
         <v>0</v>
@@ -20586,7 +20588,7 @@
         <v>0</v>
       </c>
       <c r="F565">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G565">
         <v>0</v>
@@ -20632,7 +20634,7 @@
         <v>0</v>
       </c>
       <c r="F567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G567">
         <v>0</v>
@@ -20678,7 +20680,7 @@
         <v>0</v>
       </c>
       <c r="F569">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -20724,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="F571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G571">
         <v>0</v>
@@ -20770,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="F573">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G573">
         <v>0</v>
@@ -20816,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="F575">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G575">
         <v>0</v>
@@ -20862,7 +20864,7 @@
         <v>0</v>
       </c>
       <c r="F577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G577">
         <v>0</v>
@@ -20908,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="F579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G579">
         <v>0</v>
@@ -20954,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="F581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -21000,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="F583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -21046,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="F585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G585">
         <v>0</v>
@@ -21092,7 +21094,7 @@
         <v>0</v>
       </c>
       <c r="F587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G587">
         <v>0</v>
@@ -21138,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="F589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G589">
         <v>0</v>
@@ -21184,7 +21186,7 @@
         <v>0</v>
       </c>
       <c r="F591">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G591">
         <v>0</v>
@@ -21230,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="F593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -21276,7 +21278,7 @@
         <v>0</v>
       </c>
       <c r="F595">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -21322,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="F597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G597">
         <v>0</v>
@@ -21368,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="F599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G599">
         <v>0</v>
@@ -21414,7 +21416,7 @@
         <v>0</v>
       </c>
       <c r="F601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -21460,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="F603">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -21506,7 +21508,7 @@
         <v>0</v>
       </c>
       <c r="F605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -21552,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="F607">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -21598,7 +21600,7 @@
         <v>0</v>
       </c>
       <c r="F609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -21644,7 +21646,7 @@
         <v>0</v>
       </c>
       <c r="F611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G611">
         <v>0</v>
@@ -21690,7 +21692,7 @@
         <v>0</v>
       </c>
       <c r="F613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G613">
         <v>0</v>
@@ -21736,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="F615">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G615">
         <v>0</v>
@@ -21782,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="F617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G617">
         <v>0</v>
@@ -21828,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="F619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G619">
         <v>0</v>
@@ -21874,7 +21876,7 @@
         <v>0</v>
       </c>
       <c r="F621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -21920,7 +21922,7 @@
         <v>0</v>
       </c>
       <c r="F623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G623">
         <v>0</v>
@@ -21966,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="F625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G625">
         <v>0</v>
@@ -22012,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="F627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G627">
         <v>0</v>
@@ -22058,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="F629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G629">
         <v>0</v>
@@ -22104,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="F631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -22150,7 +22152,7 @@
         <v>0</v>
       </c>
       <c r="F633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G633">
         <v>0</v>
@@ -22196,7 +22198,7 @@
         <v>0</v>
       </c>
       <c r="F635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G635">
         <v>0</v>
@@ -22242,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="F637">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637">
         <v>0</v>
@@ -22288,7 +22290,7 @@
         <v>0</v>
       </c>
       <c r="F639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -22334,7 +22336,7 @@
         <v>0</v>
       </c>
       <c r="F641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G641">
         <v>0</v>
@@ -22380,7 +22382,7 @@
         <v>0</v>
       </c>
       <c r="F643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G643">
         <v>0</v>
@@ -22426,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="F645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G645">
         <v>0</v>
@@ -22472,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="F647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G647">
         <v>0</v>
@@ -22518,7 +22520,7 @@
         <v>0</v>
       </c>
       <c r="F649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G649">
         <v>0</v>
@@ -22564,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="F651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G651">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="F653">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G653">
         <v>0</v>
@@ -22656,7 +22658,7 @@
         <v>0</v>
       </c>
       <c r="F655">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G655">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         <v>0</v>
       </c>
       <c r="F657">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -22748,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="F659">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G659">
         <v>0</v>
@@ -22794,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="F661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G661">
         <v>0</v>
@@ -22840,7 +22842,7 @@
         <v>0</v>
       </c>
       <c r="F663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G663">
         <v>0</v>
@@ -22886,7 +22888,7 @@
         <v>0</v>
       </c>
       <c r="F665">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G665">
         <v>0</v>
@@ -22932,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="F667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G667">
         <v>0</v>
@@ -22978,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="F669">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G669">
         <v>0</v>
@@ -23024,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="F671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G671">
         <v>0</v>
@@ -23070,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="F673">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G673">
         <v>0</v>
@@ -23116,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="F675">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G675">
         <v>0</v>
@@ -23162,7 +23164,7 @@
         <v>0</v>
       </c>
       <c r="F677">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G677">
         <v>0</v>
@@ -23208,7 +23210,7 @@
         <v>0</v>
       </c>
       <c r="F679">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G679">
         <v>0</v>
@@ -23254,7 +23256,7 @@
         <v>0</v>
       </c>
       <c r="F681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="F683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -23346,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -23392,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="F687">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G687">
         <v>0</v>
@@ -23438,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="F689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -23484,7 +23486,7 @@
         <v>0</v>
       </c>
       <c r="F691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -23530,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="F693">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G693">
         <v>0</v>
@@ -23576,7 +23578,7 @@
         <v>0</v>
       </c>
       <c r="F695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G695">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="F697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G697">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="F699">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G699">
         <v>0</v>
@@ -23714,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="F701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -23760,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="F703">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -23806,7 +23808,7 @@
         <v>0</v>
       </c>
       <c r="F705">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G705">
         <v>0</v>
@@ -23852,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="F707">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -23898,7 +23900,7 @@
         <v>0</v>
       </c>
       <c r="F709">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G709">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="F711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G711">
         <v>0</v>
@@ -23990,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="F713">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G713">
         <v>0</v>
@@ -24036,7 +24038,7 @@
         <v>0</v>
       </c>
       <c r="F715">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -24082,7 +24084,7 @@
         <v>0</v>
       </c>
       <c r="F717">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G717">
         <v>0</v>
@@ -24128,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="F719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G719">
         <v>0</v>
@@ -24174,7 +24176,7 @@
         <v>0</v>
       </c>
       <c r="F721">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -24220,7 +24222,7 @@
         <v>0</v>
       </c>
       <c r="F723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="F725">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -24312,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="F727">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G727">
         <v>0</v>
@@ -24358,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="F729">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -24404,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="F731">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -24450,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F733">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G733">
         <v>0</v>
@@ -24496,7 +24498,7 @@
         <v>0</v>
       </c>
       <c r="F735">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G735">
         <v>0</v>
@@ -24542,7 +24544,7 @@
         <v>0</v>
       </c>
       <c r="F737">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G737">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="F739">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -24634,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="F741">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="F743">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G743">
         <v>0</v>
@@ -24726,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="F745">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G745">
         <v>0</v>
@@ -24772,7 +24774,7 @@
         <v>0</v>
       </c>
       <c r="F747">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G747">
         <v>0</v>
@@ -24818,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="F749">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G749">
         <v>0</v>
@@ -24864,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="F751">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G751">
         <v>0</v>
@@ -24910,7 +24912,7 @@
         <v>0</v>
       </c>
       <c r="F753">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G753">
         <v>0</v>
@@ -24956,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="F755">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G755">
         <v>0</v>
@@ -25002,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="F757">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G757">
         <v>0</v>
@@ -25048,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="F759">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -25094,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="F761">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G761">
         <v>0</v>
@@ -25140,7 +25142,7 @@
         <v>0</v>
       </c>
       <c r="F763">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -25186,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="F765">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G765">
         <v>0</v>
@@ -25232,7 +25234,7 @@
         <v>0</v>
       </c>
       <c r="F767">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G767">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="F769">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G769">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="F771">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G771">
         <v>0</v>
@@ -25370,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="F773">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G773">
         <v>0</v>
@@ -25416,7 +25418,7 @@
         <v>0</v>
       </c>
       <c r="F775">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G775">
         <v>0</v>
@@ -25462,7 +25464,7 @@
         <v>0</v>
       </c>
       <c r="F777">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G777">
         <v>0</v>
@@ -25508,7 +25510,7 @@
         <v>0</v>
       </c>
       <c r="F779">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G779">
         <v>0</v>
@@ -25554,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="F781">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G781">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="F783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G783">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="F785">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G785">
         <v>0</v>
@@ -25692,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="F787">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G787">
         <v>0</v>
@@ -25738,7 +25740,7 @@
         <v>0</v>
       </c>
       <c r="F789">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G789">
         <v>0</v>
@@ -25784,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="F791">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G791">
         <v>0</v>
@@ -25830,7 +25832,7 @@
         <v>0</v>
       </c>
       <c r="F793">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G793">
         <v>0</v>
@@ -25876,7 +25878,7 @@
         <v>0</v>
       </c>
       <c r="F795">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G795">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="F797">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G797">
         <v>0</v>
@@ -25968,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="F799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G799">
         <v>0</v>
@@ -26014,7 +26016,7 @@
         <v>0</v>
       </c>
       <c r="F801">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G801">
         <v>0</v>
@@ -26060,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="F803">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G803">
         <v>0</v>
@@ -26106,7 +26108,7 @@
         <v>0</v>
       </c>
       <c r="F805">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G805">
         <v>0</v>
@@ -26152,7 +26154,7 @@
         <v>0</v>
       </c>
       <c r="F807">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G807">
         <v>0</v>
@@ -26198,7 +26200,7 @@
         <v>0</v>
       </c>
       <c r="F809">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G809">
         <v>0</v>
@@ -26244,7 +26246,7 @@
         <v>0</v>
       </c>
       <c r="F811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G811">
         <v>0</v>
@@ -26290,7 +26292,7 @@
         <v>0</v>
       </c>
       <c r="F813">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G813">
         <v>0</v>
@@ -26336,7 +26338,7 @@
         <v>0</v>
       </c>
       <c r="F815">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G815">
         <v>0</v>
@@ -26382,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="F817">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G817">
         <v>0</v>
@@ -26428,7 +26430,7 @@
         <v>0</v>
       </c>
       <c r="F819">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -26474,7 +26476,7 @@
         <v>0</v>
       </c>
       <c r="F821">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G821">
         <v>0</v>
@@ -26520,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="F823">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G823">
         <v>0</v>
@@ -26566,7 +26568,7 @@
         <v>0</v>
       </c>
       <c r="F825">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G825">
         <v>0</v>
@@ -26612,7 +26614,7 @@
         <v>0</v>
       </c>
       <c r="F827">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G827">
         <v>0</v>
@@ -26658,7 +26660,7 @@
         <v>0</v>
       </c>
       <c r="F829">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G829">
         <v>0</v>
@@ -26704,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="F831">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -26750,7 +26752,7 @@
         <v>0</v>
       </c>
       <c r="F833">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G833">
         <v>0</v>
@@ -26796,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="F835">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G835">
         <v>0</v>
@@ -26842,7 +26844,7 @@
         <v>0</v>
       </c>
       <c r="F837">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G837">
         <v>0</v>
@@ -26888,7 +26890,7 @@
         <v>0</v>
       </c>
       <c r="F839">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G839">
         <v>0</v>
@@ -26934,7 +26936,7 @@
         <v>0</v>
       </c>
       <c r="F841">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G841">
         <v>0</v>
@@ -26980,7 +26982,7 @@
         <v>0</v>
       </c>
       <c r="F843">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G843">
         <v>0</v>
@@ -27026,7 +27028,7 @@
         <v>0</v>
       </c>
       <c r="F845">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G845">
         <v>0</v>
@@ -27072,7 +27074,7 @@
         <v>0</v>
       </c>
       <c r="F847">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G847">
         <v>0</v>
@@ -27118,7 +27120,7 @@
         <v>0</v>
       </c>
       <c r="F849">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G849">
         <v>0</v>
@@ -27164,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="F851">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G851">
         <v>0</v>
@@ -27210,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="F853">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -27256,7 +27258,7 @@
         <v>0</v>
       </c>
       <c r="F855">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G855">
         <v>0</v>
@@ -27302,7 +27304,7 @@
         <v>0</v>
       </c>
       <c r="F857">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G857">
         <v>0</v>
@@ -27348,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="F859">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G859">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="F861">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G861">
         <v>0</v>
@@ -27440,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="F863">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G863">
         <v>0</v>
@@ -27486,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="F865">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G865">
         <v>0</v>
@@ -27532,7 +27534,7 @@
         <v>0</v>
       </c>
       <c r="F867">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G867">
         <v>0</v>
@@ -27578,7 +27580,7 @@
         <v>0</v>
       </c>
       <c r="F869">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G869">
         <v>0</v>
@@ -27624,7 +27626,7 @@
         <v>0</v>
       </c>
       <c r="F871">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G871">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="F873">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G873">
         <v>0</v>
@@ -27716,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="F875">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G875">
         <v>0</v>
@@ -27762,7 +27764,7 @@
         <v>0</v>
       </c>
       <c r="F877">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G877">
         <v>0</v>
@@ -27808,7 +27810,7 @@
         <v>0</v>
       </c>
       <c r="F879">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G879">
         <v>0</v>
@@ -27854,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="F881">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G881">
         <v>0</v>
@@ -27900,7 +27902,7 @@
         <v>0</v>
       </c>
       <c r="F883">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -27946,7 +27948,7 @@
         <v>0</v>
       </c>
       <c r="F885">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G885">
         <v>0</v>
@@ -27992,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="F887">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G887">
         <v>0</v>
@@ -28038,7 +28040,7 @@
         <v>0</v>
       </c>
       <c r="F889">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G889">
         <v>0</v>
@@ -28084,7 +28086,7 @@
         <v>0</v>
       </c>
       <c r="F891">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G891">
         <v>0</v>
@@ -28130,7 +28132,7 @@
         <v>0</v>
       </c>
       <c r="F893">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G893">
         <v>0</v>
@@ -28176,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F895">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G895">
         <v>0</v>
@@ -28222,7 +28224,7 @@
         <v>0</v>
       </c>
       <c r="F897">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G897">
         <v>0</v>
@@ -28268,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="F899">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G899">
         <v>0</v>
@@ -28314,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="F901">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G901">
         <v>0</v>
@@ -28360,7 +28362,7 @@
         <v>0</v>
       </c>
       <c r="F903">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G903">
         <v>0</v>
@@ -28406,7 +28408,7 @@
         <v>0</v>
       </c>
       <c r="F905">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G905">
         <v>0</v>
@@ -28452,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="F907">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G907">
         <v>0</v>
@@ -28498,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="F909">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G909">
         <v>0</v>
@@ -28544,7 +28546,7 @@
         <v>0</v>
       </c>
       <c r="F911">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G911">
         <v>0</v>
@@ -28590,7 +28592,7 @@
         <v>0</v>
       </c>
       <c r="F913">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G913">
         <v>0</v>
@@ -28636,7 +28638,7 @@
         <v>0</v>
       </c>
       <c r="F915">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G915">
         <v>0</v>
@@ -28682,7 +28684,7 @@
         <v>0</v>
       </c>
       <c r="F917">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G917">
         <v>0</v>
@@ -28728,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="F919">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G919">
         <v>0</v>
@@ -28774,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="F921">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G921">
         <v>0</v>
@@ -28820,7 +28822,7 @@
         <v>0</v>
       </c>
       <c r="F923">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G923">
         <v>0</v>
@@ -28866,7 +28868,7 @@
         <v>0</v>
       </c>
       <c r="F925">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G925">
         <v>0</v>
@@ -28912,7 +28914,7 @@
         <v>0</v>
       </c>
       <c r="F927">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G927">
         <v>0</v>
@@ -28958,7 +28960,7 @@
         <v>0</v>
       </c>
       <c r="F929">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G929">
         <v>0</v>
@@ -29004,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="F931">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G931">
         <v>0</v>
@@ -29050,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="F933">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G933">
         <v>0</v>
@@ -29096,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="F935">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G935">
         <v>0</v>
@@ -29142,7 +29144,7 @@
         <v>0</v>
       </c>
       <c r="F937">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G937">
         <v>0</v>
@@ -29188,7 +29190,7 @@
         <v>0</v>
       </c>
       <c r="F939">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G939">
         <v>0</v>
@@ -29234,7 +29236,7 @@
         <v>0</v>
       </c>
       <c r="F941">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G941">
         <v>0</v>
@@ -29280,7 +29282,7 @@
         <v>0</v>
       </c>
       <c r="F943">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G943">
         <v>0</v>
@@ -29326,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="F945">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G945">
         <v>0</v>
@@ -29372,7 +29374,7 @@
         <v>0</v>
       </c>
       <c r="F947">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G947">
         <v>0</v>
@@ -29418,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="F949">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G949">
         <v>0</v>
@@ -29464,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="F951">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G951">
         <v>0</v>
@@ -29510,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="F953">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G953">
         <v>0</v>
@@ -29556,7 +29558,7 @@
         <v>0</v>
       </c>
       <c r="F955">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G955">
         <v>0</v>
@@ -29602,7 +29604,7 @@
         <v>0</v>
       </c>
       <c r="F957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G957">
         <v>0</v>
@@ -29648,7 +29650,7 @@
         <v>0</v>
       </c>
       <c r="F959">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G959">
         <v>0</v>
@@ -29694,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="F961">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G961">
         <v>0</v>
@@ -29740,7 +29742,7 @@
         <v>0</v>
       </c>
       <c r="F963">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -29786,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="F965">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G965">
         <v>0</v>
@@ -29832,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="F967">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G967">
         <v>0</v>
@@ -29878,7 +29880,7 @@
         <v>0</v>
       </c>
       <c r="F969">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G969">
         <v>0</v>
@@ -29924,7 +29926,7 @@
         <v>0</v>
       </c>
       <c r="F971">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G971">
         <v>0</v>
@@ -29970,7 +29972,7 @@
         <v>0</v>
       </c>
       <c r="F973">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G973">
         <v>0</v>
@@ -30016,7 +30018,7 @@
         <v>0</v>
       </c>
       <c r="F975">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G975">
         <v>0</v>
@@ -30062,7 +30064,7 @@
         <v>0</v>
       </c>
       <c r="F977">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G977">
         <v>0</v>
@@ -30108,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="F979">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G979">
         <v>0</v>
@@ -30154,7 +30156,7 @@
         <v>0</v>
       </c>
       <c r="F981">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G981">
         <v>0</v>
@@ -30200,7 +30202,7 @@
         <v>0</v>
       </c>
       <c r="F983">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G983">
         <v>0</v>
@@ -30246,7 +30248,7 @@
         <v>0</v>
       </c>
       <c r="F985">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G985">
         <v>0</v>
@@ -30292,7 +30294,7 @@
         <v>0</v>
       </c>
       <c r="F987">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G987">
         <v>0</v>
@@ -30338,7 +30340,7 @@
         <v>0</v>
       </c>
       <c r="F989">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G989">
         <v>0</v>
@@ -30384,7 +30386,7 @@
         <v>0</v>
       </c>
       <c r="F991">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G991">
         <v>0</v>
@@ -30430,7 +30432,7 @@
         <v>0</v>
       </c>
       <c r="F993">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G993">
         <v>0</v>
@@ -30476,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="F995">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G995">
         <v>0</v>
@@ -30522,7 +30524,7 @@
         <v>0</v>
       </c>
       <c r="F997">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G997">
         <v>0</v>
@@ -30568,7 +30570,7 @@
         <v>0</v>
       </c>
       <c r="F999">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G999">
         <v>0</v>
@@ -30614,7 +30616,7 @@
         <v>0</v>
       </c>
       <c r="F1001">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1001">
         <v>0</v>
@@ -30660,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="F1003">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1003">
         <v>0</v>
@@ -30706,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F1005">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1005">
         <v>0</v>
@@ -30752,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="F1007">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1007">
         <v>0</v>
@@ -30798,7 +30800,7 @@
         <v>0</v>
       </c>
       <c r="F1009">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1009">
         <v>0</v>
@@ -30844,7 +30846,7 @@
         <v>0</v>
       </c>
       <c r="F1011">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1011">
         <v>0</v>
@@ -30890,7 +30892,7 @@
         <v>0</v>
       </c>
       <c r="F1013">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1013">
         <v>0</v>
@@ -30936,7 +30938,7 @@
         <v>0</v>
       </c>
       <c r="F1015">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1015">
         <v>0</v>
@@ -30982,7 +30984,7 @@
         <v>0</v>
       </c>
       <c r="F1017">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -31028,7 +31030,7 @@
         <v>0</v>
       </c>
       <c r="F1019">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1019">
         <v>0</v>
@@ -31074,7 +31076,7 @@
         <v>0</v>
       </c>
       <c r="F1021">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1021">
         <v>0</v>
@@ -31120,7 +31122,7 @@
         <v>0</v>
       </c>
       <c r="F1023">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1023">
         <v>0</v>

--- a/data/course01.xlsx
+++ b/data/course01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kata6\Game\X68000\Develop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA9278-31C9-448B-BB40-EE03BAA55D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6DA6F6-2650-4426-8AB8-2A19F9FFA48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26985" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20325" yWindow="945" windowWidth="19095" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="course01" sheetId="1" r:id="rId1"/>
@@ -4583,91 +4583,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="285"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -4679,181 +4679,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0</c:v>
@@ -4865,181 +4865,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="124">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>0</c:v>
@@ -5051,181 +5051,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="186">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="195">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="197">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="213">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="215">
                   <c:v>0</c:v>
@@ -5237,181 +5237,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="248">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="263">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="267">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>0</c:v>
@@ -5423,19 +5423,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,8 +7593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1000" workbookViewId="0">
-      <selection activeCell="I1023" sqref="I1023"/>
+    <sheetView tabSelected="1" topLeftCell="A1012" workbookViewId="0">
+      <selection activeCell="G1026" sqref="G1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -8214,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10192,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -10514,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -11434,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -11618,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -11664,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -11710,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -12676,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -12998,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -13228,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -13297,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -13320,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -13458,7 +13458,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -13504,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -13550,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -14102,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -14148,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -14194,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -14240,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -14332,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="F293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -14378,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="F299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -14562,7 +14562,7 @@
         <v>0</v>
       </c>
       <c r="F303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="F305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -14654,7 +14654,7 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -14700,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="F309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -14746,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="F311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="F313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -14838,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -14930,7 +14930,7 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="F323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="F325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G327">
         <v>0</v>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="F329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -15206,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="F331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G331">
         <v>0</v>
@@ -15252,7 +15252,7 @@
         <v>0</v>
       </c>
       <c r="F333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="F335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335">
         <v>0</v>
@@ -15344,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="F337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -15482,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="F343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G343">
         <v>0</v>
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="F345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G345">
         <v>0</v>
@@ -15574,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="F347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G347">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="F349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G349">
         <v>0</v>
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="F351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -15712,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="F353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G353">
         <v>0</v>
@@ -15758,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="F355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G355">
         <v>0</v>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="F357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G357">
         <v>0</v>
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="F359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="F361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="F363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -15988,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="F365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365">
         <v>0</v>
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="F367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367">
         <v>0</v>
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="F369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="F372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G372">
         <v>0</v>
@@ -16172,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="F373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373">
         <v>0</v>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="F375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -16264,7 +16264,7 @@
         <v>0</v>
       </c>
       <c r="F377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="F379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="F381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381">
         <v>0</v>
@@ -16402,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="F383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383">
         <v>0</v>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="F385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="F387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="F389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="F391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G391">
         <v>0</v>
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="F393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="F395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -16724,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="F397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="F399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -16816,7 +16816,7 @@
         <v>0</v>
       </c>
       <c r="F401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G401">
         <v>0</v>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="F405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G405">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="F407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407">
         <v>0</v>
@@ -17000,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="F409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="F411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G411">
         <v>0</v>
@@ -17092,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="F413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="F415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -17184,7 +17184,7 @@
         <v>0</v>
       </c>
       <c r="F417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G417">
         <v>0</v>
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="F419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G419">
         <v>0</v>
@@ -17276,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="F421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="F423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G423">
         <v>0</v>
@@ -17368,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="F425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -17414,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="F427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G427">
         <v>0</v>
@@ -17460,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="F429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G429">
         <v>0</v>
@@ -17506,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="F431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G431">
         <v>0</v>
@@ -17552,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="F433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G433">
         <v>0</v>
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="F434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G434">
         <v>0</v>
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="F435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="F437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="F439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="F441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="F443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="F445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -17874,7 +17874,7 @@
         <v>0</v>
       </c>
       <c r="F447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G447">
         <v>0</v>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="F449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G449">
         <v>0</v>
@@ -17966,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="F451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G451">
         <v>0</v>
@@ -18012,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="F453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G453">
         <v>0</v>
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="F455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="F457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G457">
         <v>0</v>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
       <c r="F459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G459">
         <v>0</v>
@@ -18196,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="F461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="F463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G463">
         <v>0</v>
@@ -18334,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="F467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G467">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="F469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="F471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G471">
         <v>0</v>
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="F473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G473">
         <v>0</v>
@@ -18518,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="F475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G475">
         <v>0</v>
@@ -18564,7 +18564,7 @@
         <v>0</v>
       </c>
       <c r="F477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G477">
         <v>0</v>
@@ -18610,7 +18610,7 @@
         <v>0</v>
       </c>
       <c r="F479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G479">
         <v>0</v>
@@ -18656,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="F481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G481">
         <v>0</v>
@@ -18702,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="F483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G483">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="F485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -18794,7 +18794,7 @@
         <v>0</v>
       </c>
       <c r="F487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
       <c r="F489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G489">
         <v>0</v>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="F491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G491">
         <v>0</v>
@@ -18932,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="F493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -18978,7 +18978,7 @@
         <v>0</v>
       </c>
       <c r="F495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G495">
         <v>0</v>
@@ -19001,7 +19001,7 @@
         <v>0</v>
       </c>
       <c r="F496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G496">
         <v>0</v>
@@ -19024,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="F497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G497">
         <v>0</v>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
       <c r="F499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G499">
         <v>0</v>
@@ -19116,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="F501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G501">
         <v>0</v>
@@ -19162,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="F503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G503">
         <v>0</v>
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="F505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -19254,7 +19254,7 @@
         <v>0</v>
       </c>
       <c r="F507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -19300,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="F509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -19346,7 +19346,7 @@
         <v>0</v>
       </c>
       <c r="F511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G511">
         <v>0</v>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
       <c r="F513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G513">
         <v>0</v>
@@ -19438,7 +19438,7 @@
         <v>0</v>
       </c>
       <c r="F515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G515">
         <v>0</v>
@@ -19484,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="F517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G517">
         <v>0</v>
@@ -19530,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="F519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G519">
         <v>0</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="F521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G521">
         <v>0</v>
@@ -19622,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="F523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523">
         <v>0</v>
@@ -19668,7 +19668,7 @@
         <v>0</v>
       </c>
       <c r="F525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="F529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529">
         <v>0</v>
@@ -19806,7 +19806,7 @@
         <v>0</v>
       </c>
       <c r="F531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>0</v>
       </c>
       <c r="F533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -19898,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="F535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -19944,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="F537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537">
         <v>0</v>
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="F539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539">
         <v>0</v>
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="F541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G541">
         <v>0</v>
@@ -20082,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="F543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G543">
         <v>0</v>
@@ -20128,7 +20128,7 @@
         <v>0</v>
       </c>
       <c r="F545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="F547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G547">
         <v>0</v>
@@ -20220,7 +20220,7 @@
         <v>0</v>
       </c>
       <c r="F549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G549">
         <v>0</v>
@@ -20266,7 +20266,7 @@
         <v>0</v>
       </c>
       <c r="F551">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G551">
         <v>0</v>
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="F553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G553">
         <v>0</v>
@@ -20358,7 +20358,7 @@
         <v>0</v>
       </c>
       <c r="F555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G555">
         <v>0</v>
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="F557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G557">
         <v>0</v>
@@ -20427,7 +20427,7 @@
         <v>0</v>
       </c>
       <c r="F558">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G558">
         <v>0</v>
@@ -20450,7 +20450,7 @@
         <v>0</v>
       </c>
       <c r="F559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -20496,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="F561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G561">
         <v>0</v>
@@ -20542,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="F563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G563">
         <v>0</v>
@@ -20588,7 +20588,7 @@
         <v>0</v>
       </c>
       <c r="F565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G565">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>0</v>
       </c>
       <c r="F567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G567">
         <v>0</v>
@@ -20680,7 +20680,7 @@
         <v>0</v>
       </c>
       <c r="F569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="F571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G571">
         <v>0</v>
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="F573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G573">
         <v>0</v>
@@ -20818,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="F575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G575">
         <v>0</v>
@@ -20864,7 +20864,7 @@
         <v>0</v>
       </c>
       <c r="F577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G577">
         <v>0</v>
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="F579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G579">
         <v>0</v>
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="F581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -21002,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="F583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -21048,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="F585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G585">
         <v>0</v>
@@ -21094,7 +21094,7 @@
         <v>0</v>
       </c>
       <c r="F587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G587">
         <v>0</v>
@@ -21186,7 +21186,7 @@
         <v>0</v>
       </c>
       <c r="F591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G591">
         <v>0</v>
@@ -21232,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="F593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -21278,7 +21278,7 @@
         <v>0</v>
       </c>
       <c r="F595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="F597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G597">
         <v>0</v>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="F599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G599">
         <v>0</v>
@@ -21416,7 +21416,7 @@
         <v>0</v>
       </c>
       <c r="F601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -21462,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="F603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -21508,7 +21508,7 @@
         <v>0</v>
       </c>
       <c r="F605">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -21554,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="F607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
       <c r="F609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -21646,7 +21646,7 @@
         <v>0</v>
       </c>
       <c r="F611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G611">
         <v>0</v>
@@ -21692,7 +21692,7 @@
         <v>0</v>
       </c>
       <c r="F613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G613">
         <v>0</v>
@@ -21738,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="F615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G615">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="F617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G617">
         <v>0</v>
@@ -21830,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="F619">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G619">
         <v>0</v>
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="F620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G620">
         <v>0</v>
@@ -21876,7 +21876,7 @@
         <v>0</v>
       </c>
       <c r="F621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -21922,7 +21922,7 @@
         <v>0</v>
       </c>
       <c r="F623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G623">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="F625">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G625">
         <v>0</v>
@@ -22014,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="F627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G627">
         <v>0</v>
@@ -22060,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="F629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G629">
         <v>0</v>
@@ -22106,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="F631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -22152,7 +22152,7 @@
         <v>0</v>
       </c>
       <c r="F633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G633">
         <v>0</v>
@@ -22198,7 +22198,7 @@
         <v>0</v>
       </c>
       <c r="F635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G635">
         <v>0</v>
@@ -22244,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="F637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G637">
         <v>0</v>
@@ -22290,7 +22290,7 @@
         <v>0</v>
       </c>
       <c r="F639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -22336,7 +22336,7 @@
         <v>0</v>
       </c>
       <c r="F641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G641">
         <v>0</v>
@@ -22382,7 +22382,7 @@
         <v>0</v>
       </c>
       <c r="F643">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G643">
         <v>0</v>
@@ -22428,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="F645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G645">
         <v>0</v>
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="F647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G647">
         <v>0</v>
@@ -22520,7 +22520,7 @@
         <v>0</v>
       </c>
       <c r="F649">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G649">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="F653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G653">
         <v>0</v>
@@ -22658,7 +22658,7 @@
         <v>0</v>
       </c>
       <c r="F655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G655">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         <v>0</v>
       </c>
       <c r="F657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="F659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G659">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="F661">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G661">
         <v>0</v>
@@ -22842,7 +22842,7 @@
         <v>0</v>
       </c>
       <c r="F663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G663">
         <v>0</v>
@@ -22888,7 +22888,7 @@
         <v>0</v>
       </c>
       <c r="F665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G665">
         <v>0</v>
@@ -22934,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="F667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G667">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="F669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G669">
         <v>0</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="F671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G671">
         <v>0</v>
@@ -23072,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="F673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G673">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="F675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G675">
         <v>0</v>
@@ -23164,7 +23164,7 @@
         <v>0</v>
       </c>
       <c r="F677">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G677">
         <v>0</v>
@@ -23210,7 +23210,7 @@
         <v>0</v>
       </c>
       <c r="F679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G679">
         <v>0</v>
@@ -23256,7 +23256,7 @@
         <v>0</v>
       </c>
       <c r="F681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="F682">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G682">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="F683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="F687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G687">
         <v>0</v>
@@ -23440,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="F689">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -23486,7 +23486,7 @@
         <v>0</v>
       </c>
       <c r="F691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -23532,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="F693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G693">
         <v>0</v>
@@ -23578,7 +23578,7 @@
         <v>0</v>
       </c>
       <c r="F695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G695">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="F697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G697">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="F699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G699">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="F701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -23762,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="F703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -23808,7 +23808,7 @@
         <v>0</v>
       </c>
       <c r="F705">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G705">
         <v>0</v>
@@ -23854,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="F707">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -23900,7 +23900,7 @@
         <v>0</v>
       </c>
       <c r="F709">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G709">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="F711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G711">
         <v>0</v>
@@ -24038,7 +24038,7 @@
         <v>0</v>
       </c>
       <c r="F715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -24084,7 +24084,7 @@
         <v>0</v>
       </c>
       <c r="F717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G717">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="F719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G719">
         <v>0</v>
@@ -24176,7 +24176,7 @@
         <v>0</v>
       </c>
       <c r="F721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -24222,7 +24222,7 @@
         <v>0</v>
       </c>
       <c r="F723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="F725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -24314,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="F727">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G727">
         <v>0</v>
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="F729">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G729">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="F731">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F733">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G733">
         <v>0</v>
@@ -24498,7 +24498,7 @@
         <v>0</v>
       </c>
       <c r="F735">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G735">
         <v>0</v>
@@ -24544,7 +24544,7 @@
         <v>0</v>
       </c>
       <c r="F737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G737">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="F739">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -24636,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="F741">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="F743">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G743">
         <v>0</v>
@@ -24705,7 +24705,7 @@
         <v>0</v>
       </c>
       <c r="F744">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="F745">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G745">
         <v>0</v>
@@ -24774,7 +24774,7 @@
         <v>0</v>
       </c>
       <c r="F747">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G747">
         <v>0</v>
@@ -24820,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="F749">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G749">
         <v>0</v>
@@ -24866,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="F751">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G751">
         <v>0</v>
@@ -24912,7 +24912,7 @@
         <v>0</v>
       </c>
       <c r="F753">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G753">
         <v>0</v>
@@ -24958,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="F755">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G755">
         <v>0</v>
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="F757">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G757">
         <v>0</v>
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="F759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="F761">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G761">
         <v>0</v>
@@ -25142,7 +25142,7 @@
         <v>0</v>
       </c>
       <c r="F763">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G763">
         <v>0</v>
@@ -25188,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="F765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G765">
         <v>0</v>
@@ -25234,7 +25234,7 @@
         <v>0</v>
       </c>
       <c r="F767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G767">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="F769">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G769">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="F771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G771">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="F773">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G773">
         <v>0</v>
@@ -25464,7 +25464,7 @@
         <v>0</v>
       </c>
       <c r="F777">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G777">
         <v>0</v>
@@ -25510,7 +25510,7 @@
         <v>0</v>
       </c>
       <c r="F779">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G779">
         <v>0</v>
@@ -25556,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="F781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G781">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="F783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G783">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="F785">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G785">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="F787">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G787">
         <v>0</v>
@@ -25740,7 +25740,7 @@
         <v>0</v>
       </c>
       <c r="F789">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G789">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="F791">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G791">
         <v>0</v>
@@ -25832,7 +25832,7 @@
         <v>0</v>
       </c>
       <c r="F793">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G793">
         <v>0</v>
@@ -25878,7 +25878,7 @@
         <v>0</v>
       </c>
       <c r="F795">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G795">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="F797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G797">
         <v>0</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="F799">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G799">
         <v>0</v>
@@ -26016,7 +26016,7 @@
         <v>0</v>
       </c>
       <c r="F801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G801">
         <v>0</v>
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="F803">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G803">
         <v>0</v>
@@ -26108,7 +26108,7 @@
         <v>0</v>
       </c>
       <c r="F805">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G805">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="F806">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G806">
         <v>0</v>
@@ -26154,7 +26154,7 @@
         <v>0</v>
       </c>
       <c r="F807">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G807">
         <v>0</v>
@@ -26200,7 +26200,7 @@
         <v>0</v>
       </c>
       <c r="F809">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G809">
         <v>0</v>
@@ -26246,7 +26246,7 @@
         <v>0</v>
       </c>
       <c r="F811">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G811">
         <v>0</v>
@@ -26292,7 +26292,7 @@
         <v>0</v>
       </c>
       <c r="F813">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G813">
         <v>0</v>
@@ -26338,7 +26338,7 @@
         <v>0</v>
       </c>
       <c r="F815">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G815">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="F817">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G817">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>0</v>
       </c>
       <c r="F819">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G819">
         <v>0</v>
@@ -26476,7 +26476,7 @@
         <v>0</v>
       </c>
       <c r="F821">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G821">
         <v>0</v>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="F823">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G823">
         <v>0</v>
@@ -26568,7 +26568,7 @@
         <v>0</v>
       </c>
       <c r="F825">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G825">
         <v>0</v>
@@ -26614,7 +26614,7 @@
         <v>0</v>
       </c>
       <c r="F827">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G827">
         <v>0</v>
@@ -26660,7 +26660,7 @@
         <v>0</v>
       </c>
       <c r="F829">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G829">
         <v>0</v>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="F831">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -26752,7 +26752,7 @@
         <v>0</v>
       </c>
       <c r="F833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G833">
         <v>0</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="F835">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G835">
         <v>0</v>
@@ -26890,7 +26890,7 @@
         <v>0</v>
       </c>
       <c r="F839">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G839">
         <v>0</v>
@@ -26936,7 +26936,7 @@
         <v>0</v>
       </c>
       <c r="F841">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G841">
         <v>0</v>
@@ -26982,7 +26982,7 @@
         <v>0</v>
       </c>
       <c r="F843">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G843">
         <v>0</v>
@@ -27028,7 +27028,7 @@
         <v>0</v>
       </c>
       <c r="F845">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G845">
         <v>0</v>
@@ -27074,7 +27074,7 @@
         <v>0</v>
       </c>
       <c r="F847">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G847">
         <v>0</v>
@@ -27120,7 +27120,7 @@
         <v>0</v>
       </c>
       <c r="F849">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G849">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="F851">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G851">
         <v>0</v>
@@ -27212,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="F853">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -27258,7 +27258,7 @@
         <v>0</v>
       </c>
       <c r="F855">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G855">
         <v>0</v>
@@ -27304,7 +27304,7 @@
         <v>0</v>
       </c>
       <c r="F857">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G857">
         <v>0</v>
@@ -27350,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="F859">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G859">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="F861">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G861">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="F863">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G863">
         <v>0</v>
@@ -27488,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="F865">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G865">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         <v>0</v>
       </c>
       <c r="F867">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G867">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="F868">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G868">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>0</v>
       </c>
       <c r="F869">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G869">
         <v>0</v>
@@ -27626,7 +27626,7 @@
         <v>0</v>
       </c>
       <c r="F871">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G871">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="F873">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G873">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="F875">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G875">
         <v>0</v>
@@ -27764,7 +27764,7 @@
         <v>0</v>
       </c>
       <c r="F877">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G877">
         <v>0</v>
@@ -27810,7 +27810,7 @@
         <v>0</v>
       </c>
       <c r="F879">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G879">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="F881">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G881">
         <v>0</v>
@@ -27902,7 +27902,7 @@
         <v>0</v>
       </c>
       <c r="F883">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -27948,7 +27948,7 @@
         <v>0</v>
       </c>
       <c r="F885">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G885">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="F887">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G887">
         <v>0</v>
@@ -28040,7 +28040,7 @@
         <v>0</v>
       </c>
       <c r="F889">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G889">
         <v>0</v>
@@ -28086,7 +28086,7 @@
         <v>0</v>
       </c>
       <c r="F891">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G891">
         <v>0</v>
@@ -28132,7 +28132,7 @@
         <v>0</v>
       </c>
       <c r="F893">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G893">
         <v>0</v>
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F895">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G895">
         <v>0</v>
@@ -28224,7 +28224,7 @@
         <v>0</v>
       </c>
       <c r="F897">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G897">
         <v>0</v>
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="F901">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G901">
         <v>0</v>
@@ -28362,7 +28362,7 @@
         <v>0</v>
       </c>
       <c r="F903">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G903">
         <v>0</v>
@@ -28408,7 +28408,7 @@
         <v>0</v>
       </c>
       <c r="F905">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G905">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="F907">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G907">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="F909">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G909">
         <v>0</v>
@@ -28546,7 +28546,7 @@
         <v>0</v>
       </c>
       <c r="F911">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G911">
         <v>0</v>
@@ -28592,7 +28592,7 @@
         <v>0</v>
       </c>
       <c r="F913">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G913">
         <v>0</v>
@@ -28638,7 +28638,7 @@
         <v>0</v>
       </c>
       <c r="F915">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G915">
         <v>0</v>
@@ -28684,7 +28684,7 @@
         <v>0</v>
       </c>
       <c r="F917">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G917">
         <v>0</v>
@@ -28730,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="F919">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G919">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="F921">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G921">
         <v>0</v>
@@ -28822,7 +28822,7 @@
         <v>0</v>
       </c>
       <c r="F923">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G923">
         <v>0</v>
@@ -28868,7 +28868,7 @@
         <v>0</v>
       </c>
       <c r="F925">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G925">
         <v>0</v>
@@ -28914,7 +28914,7 @@
         <v>0</v>
       </c>
       <c r="F927">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G927">
         <v>0</v>
@@ -28960,7 +28960,7 @@
         <v>0</v>
       </c>
       <c r="F929">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G929">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="F930">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G930">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="F931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G931">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="F933">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G933">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="F935">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G935">
         <v>0</v>
@@ -29144,7 +29144,7 @@
         <v>0</v>
       </c>
       <c r="F937">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G937">
         <v>0</v>
@@ -29190,7 +29190,7 @@
         <v>0</v>
       </c>
       <c r="F939">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G939">
         <v>0</v>
@@ -29236,7 +29236,7 @@
         <v>0</v>
       </c>
       <c r="F941">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G941">
         <v>0</v>
@@ -29282,7 +29282,7 @@
         <v>0</v>
       </c>
       <c r="F943">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G943">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="F945">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G945">
         <v>0</v>
@@ -29374,7 +29374,7 @@
         <v>0</v>
       </c>
       <c r="F947">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G947">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="F949">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G949">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="F951">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G951">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="F953">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G953">
         <v>0</v>
@@ -29558,7 +29558,7 @@
         <v>0</v>
       </c>
       <c r="F955">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G955">
         <v>0</v>
@@ -29604,7 +29604,7 @@
         <v>0</v>
       </c>
       <c r="F957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G957">
         <v>0</v>
@@ -29650,7 +29650,7 @@
         <v>0</v>
       </c>
       <c r="F959">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G959">
         <v>0</v>
@@ -29742,7 +29742,7 @@
         <v>0</v>
       </c>
       <c r="F963">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G963">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="F965">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G965">
         <v>0</v>
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="F967">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G967">
         <v>0</v>
@@ -29880,7 +29880,7 @@
         <v>0</v>
       </c>
       <c r="F969">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G969">
         <v>0</v>
@@ -29926,7 +29926,7 @@
         <v>0</v>
       </c>
       <c r="F971">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G971">
         <v>0</v>
@@ -29972,7 +29972,7 @@
         <v>0</v>
       </c>
       <c r="F973">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G973">
         <v>0</v>
@@ -30018,7 +30018,7 @@
         <v>0</v>
       </c>
       <c r="F975">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G975">
         <v>0</v>
@@ -30064,7 +30064,7 @@
         <v>0</v>
       </c>
       <c r="F977">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G977">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="F979">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G979">
         <v>0</v>
@@ -30156,7 +30156,7 @@
         <v>0</v>
       </c>
       <c r="F981">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G981">
         <v>0</v>
@@ -30202,7 +30202,7 @@
         <v>0</v>
       </c>
       <c r="F983">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G983">
         <v>0</v>
@@ -30248,7 +30248,7 @@
         <v>0</v>
       </c>
       <c r="F985">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G985">
         <v>0</v>
@@ -30294,7 +30294,7 @@
         <v>0</v>
       </c>
       <c r="F987">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G987">
         <v>0</v>
@@ -30340,7 +30340,7 @@
         <v>0</v>
       </c>
       <c r="F989">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G989">
         <v>0</v>
@@ -30386,7 +30386,7 @@
         <v>0</v>
       </c>
       <c r="F991">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G991">
         <v>0</v>
@@ -30409,7 +30409,7 @@
         <v>0</v>
       </c>
       <c r="F992">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G992">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>0</v>
       </c>
       <c r="F993">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G993">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="F995">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G995">
         <v>0</v>
@@ -30524,7 +30524,7 @@
         <v>0</v>
       </c>
       <c r="F997">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G997">
         <v>0</v>
@@ -30570,7 +30570,7 @@
         <v>0</v>
       </c>
       <c r="F999">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G999">
         <v>0</v>
@@ -30616,7 +30616,7 @@
         <v>0</v>
       </c>
       <c r="F1001">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1001">
         <v>0</v>
@@ -30662,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="F1003">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1003">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F1005">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1005">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="F1007">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1007">
         <v>0</v>
@@ -30800,7 +30800,7 @@
         <v>0</v>
       </c>
       <c r="F1009">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1009">
         <v>0</v>
@@ -30846,7 +30846,7 @@
         <v>0</v>
       </c>
       <c r="F1011">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1011">
         <v>0</v>
@@ -30892,7 +30892,7 @@
         <v>0</v>
       </c>
       <c r="F1013">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1013">
         <v>0</v>
@@ -30938,7 +30938,7 @@
         <v>0</v>
       </c>
       <c r="F1015">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1015">
         <v>0</v>
@@ -30984,7 +30984,7 @@
         <v>0</v>
       </c>
       <c r="F1017">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1017">
         <v>0</v>
@@ -31030,7 +31030,7 @@
         <v>0</v>
       </c>
       <c r="F1019">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1019">
         <v>0</v>
@@ -31076,7 +31076,7 @@
         <v>0</v>
       </c>
       <c r="F1021">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1021">
         <v>0</v>
